--- a/utils/Client 1 - Activision.xlsx
+++ b/utils/Client 1 - Activision.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" state="visible" r:id="rId2"/>
@@ -41,7 +41,7 @@
     <t xml:space="preserve">6x0UW2uwT%</t>
   </si>
   <si>
-    <t xml:space="preserve">https://qaactivision.dsidrm.com/signin</t>
+    <t xml:space="preserve">qanintendo.dsidrm.com</t>
   </si>
   <si>
     <t xml:space="preserve">companyName</t>
@@ -418,8 +418,8 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -440,7 +440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -452,9 +452,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://qaactivision.dsidrm.com/signin"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -553,7 +550,7 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/utils/Client 1 - Activision.xlsx
+++ b/utils/Client 1 - Activision.xlsx
@@ -41,7 +41,7 @@
     <t xml:space="preserve">6x0UW2uwT%</t>
   </si>
   <si>
-    <t xml:space="preserve">qanintendo.dsidrm.com</t>
+    <t xml:space="preserve">qanmr.dsidrm.com</t>
   </si>
   <si>
     <t xml:space="preserve">companyName</t>

--- a/utils/Client 1 - Activision.xlsx
+++ b/utils/Client 1 - Activision.xlsx
@@ -35,13 +35,13 @@
     <t xml:space="preserve">URL</t>
   </si>
   <si>
-    <t xml:space="preserve">DrmService</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6x0UW2uwT%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qanmr.dsidrm.com</t>
+    <t xml:space="preserve">hsiddique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automation123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://qareceivables.dsidrm.com/signin</t>
   </si>
   <si>
     <t xml:space="preserve">companyName</t>
@@ -201,7 +201,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -229,7 +229,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u val="single"/>
@@ -305,11 +310,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -318,7 +323,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -419,14 +428,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -440,18 +449,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://qareceivables.dsidrm.com/signin"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -588,13 +600,13 @@
       <c r="C2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -608,13 +620,13 @@
       <c r="C3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -730,72 +742,72 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>54</v>
       </c>
     </row>

--- a/utils/Client 1 - Activision.xlsx
+++ b/utils/Client 1 - Activision.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -33,15 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">URL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsiddique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automation123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://qareceivables.dsidrm.com/signin</t>
   </si>
   <si>
     <t xml:space="preserve">companyName</t>
@@ -201,7 +192,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -229,12 +220,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -310,7 +296,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -323,11 +309,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -428,7 +414,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -449,21 +435,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://qareceivables.dsidrm.com/signin"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -495,53 +472,53 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>19</v>
-      </c>
       <c r="E3" s="0" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -566,7 +543,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.21"/>
@@ -575,59 +552,59 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>168</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>168</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +633,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.33"/>
@@ -668,42 +645,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -728,7 +705,7 @@
       <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.0078125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.015625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.33"/>
@@ -743,72 +720,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="J2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="K2" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
